--- a/data/casos_provincias.xlsx
+++ b/data/casos_provincias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718A1165-E945-4507-B18B-C0655390E335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A46BF8-7A9A-4F2A-A530-711805D7FF89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="1095" windowWidth="7350" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11205" yWindow="105" windowWidth="7035" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="casos_provincias" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="32">
   <si>
     <t>PROVINCIA</t>
   </si>
@@ -980,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2250"/>
+  <dimension ref="A1:H2274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2217" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2229" sqref="B2229"/>
+    <sheetView tabSelected="1" topLeftCell="A2249" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2273" sqref="D2273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32117,7 +32117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2241" t="s">
         <v>28</v>
       </c>
@@ -32128,7 +32128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2242" t="s">
         <v>29</v>
       </c>
@@ -32139,7 +32139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2243" t="s">
         <v>18</v>
       </c>
@@ -32150,7 +32150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2244" t="s">
         <v>19</v>
       </c>
@@ -32161,7 +32161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2245" t="s">
         <v>20</v>
       </c>
@@ -32172,7 +32172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2246" t="s">
         <v>21</v>
       </c>
@@ -32183,7 +32183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2247" t="s">
         <v>22</v>
       </c>
@@ -32194,7 +32194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2248" t="s">
         <v>23</v>
       </c>
@@ -32205,7 +32205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2249" t="s">
         <v>24</v>
       </c>
@@ -32216,7 +32216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2250" t="s">
         <v>30</v>
       </c>
@@ -32224,6 +32224,339 @@
         <v>43988</v>
       </c>
       <c r="C2250" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2251" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2251" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2251" s="2">
+        <v>375</v>
+      </c>
+      <c r="D2251" s="2">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2252" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2252" s="2">
+        <v>359</v>
+      </c>
+      <c r="D2252" s="2">
+        <v>11010</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2253" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2253" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2253" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2253" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2254" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2254" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2254" s="2">
+        <v>18</v>
+      </c>
+      <c r="D2254" s="2">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2255" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2255" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2255" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2255" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2256" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2256" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2256" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2256" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2257" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2257" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2257" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2257" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2258" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2258" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2258" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2258" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2259" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2259" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2259" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2259" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2260" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2260" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2260" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2260" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2261" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2261" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2261" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2261" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2262" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2262" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2262" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2262" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2263" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2263" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2263" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2263" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2264" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2264" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2264" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2264" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2265" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2265" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2265" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2265" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2266" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2266" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2266" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2266" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2267" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2267" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2267" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2267" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2268" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2268" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2268" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2268" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2269" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2269" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2269" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2269" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2270" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2270" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2270" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2270" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2271" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2271" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2271" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2271" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2272" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2272" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2272" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2272" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2273" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2273" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2273" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2273" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2274" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2274" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C2274" s="2">
         <v>0</v>
       </c>
     </row>
